--- a/20160422-recycling/builds/production/data/maindata.xlsx
+++ b/20160422-recycling/builds/production/data/maindata.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="74">
   <si>
     <t xml:space="preserve">Materials </t>
   </si>
@@ -220,6 +220,30 @@
   <si>
     <t>Source: Minnesota Pollution Control Agency</t>
   </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Minnesota Pollution Control Agency</t>
+  </si>
+  <si>
+    <t>pounds</t>
+  </si>
+  <si>
+    <t>chart</t>
+  </si>
+  <si>
+    <t>Raw pounds of recyclables in garbage by type, by year 1996-2013</t>
+  </si>
+  <si>
+    <t>Summary data of recyclables ending up in garbage by year, 1996-2013</t>
+  </si>
 </sst>
 </file>
 
@@ -228,7 +252,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -245,6 +269,12 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -303,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -318,6 +348,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,7 +683,7 @@
   <dimension ref="A1:J322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -12383,22 +12414,58 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="12" customFormat="1">
+      <c r="A6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/20160422-recycling/builds/production/data/maindata.xlsx
+++ b/20160422-recycling/builds/production/data/maindata.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1080" windowWidth="26460" windowHeight="17780" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="26460" windowHeight="17780" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="pounds" sheetId="1" r:id="rId1"/>
     <sheet name="chart" sheetId="3" r:id="rId2"/>
     <sheet name="source" sheetId="4" r:id="rId3"/>
+    <sheet name="layout" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="108">
   <si>
     <t xml:space="preserve">Materials </t>
   </si>
@@ -244,6 +245,108 @@
   <si>
     <t>Summary data of recyclables ending up in garbage by year, 1996-2013</t>
   </si>
+  <si>
+    <t>Type of material</t>
+  </si>
+  <si>
+    <t>How much of it is waste, by percentage</t>
+  </si>
+  <si>
+    <t>How many tons</t>
+  </si>
+  <si>
+    <t>The market value per ton</t>
+  </si>
+  <si>
+    <t>The market value potential</t>
+  </si>
+  <si>
+    <t>Data year</t>
+  </si>
+  <si>
+    <t>Overall category of material</t>
+  </si>
+  <si>
+    <t>Tons converted to pounds</t>
+  </si>
+  <si>
+    <t>Minnesota population</t>
+  </si>
+  <si>
+    <t>How many pounds produced per person</t>
+  </si>
+  <si>
+    <t>Tons of aluminum beverage containers</t>
+  </si>
+  <si>
+    <t>Tons of plastic film</t>
+  </si>
+  <si>
+    <t>Tons of glass</t>
+  </si>
+  <si>
+    <t>Tons of other aluminum</t>
+  </si>
+  <si>
+    <t>Tons of paper</t>
+  </si>
+  <si>
+    <t>Tons of plastic</t>
+  </si>
+  <si>
+    <t>Tons of steel cans</t>
+  </si>
+  <si>
+    <t>Total tons</t>
+  </si>
+  <si>
+    <t>Tons of glass beverage containers</t>
+  </si>
+  <si>
+    <t>Tons of other small aluminum</t>
+  </si>
+  <si>
+    <t>Tons of glass containers</t>
+  </si>
+  <si>
+    <t>Tons of other metal</t>
+  </si>
+  <si>
+    <t>Tons of steel or tin containers</t>
+  </si>
+  <si>
+    <t>Tons of other plastic containers</t>
+  </si>
+  <si>
+    <t>Tons of polystyrene</t>
+  </si>
+  <si>
+    <t>Tons of HDPE</t>
+  </si>
+  <si>
+    <t>Tons of PET</t>
+  </si>
+  <si>
+    <t>Tons of cartons</t>
+  </si>
+  <si>
+    <t>Tons of magazines</t>
+  </si>
+  <si>
+    <t>Tons of paper boxboard</t>
+  </si>
+  <si>
+    <t>Tons of high grade office paper</t>
+  </si>
+  <si>
+    <t>Tons of newsprint</t>
+  </si>
+  <si>
+    <t>Tons of mixed paper</t>
+  </si>
+  <si>
+    <t>Tons of uncoated old corrugated containers</t>
+  </si>
 </sst>
 </file>
 
@@ -252,7 +355,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -275,6 +378,18 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -330,8 +445,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -350,7 +469,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -683,8 +806,8 @@
   <dimension ref="A1:J322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -10812,6 +10935,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10824,9 +10948,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" sqref="A1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -12404,6 +12528,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -12416,7 +12541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -12476,4 +12601,333 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>